--- a/biology/Médecine/François_Silly/François_Silly.xlsx
+++ b/biology/Médecine/François_Silly/François_Silly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Silly</t>
+          <t>François_Silly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François, Charles, Léon Silly (1808-1892) est un médecin, républicain et opposant au Second Empire. Il est le fils du général Pierre Louis François Silly.
-Il a marqué de son empreinte humaniste la commune de Villiers-sur-Loir[1]. Une rue y porte son nom.
-Son frère, Clément, qui fut notamment un journaliste engagé, également républicain et socialiste, opposant au régime de Napoléon III, fut éloigné de la Sarthe et du Loir-et-Cher par mesure pénale du fait de ses idées[2].
+Il a marqué de son empreinte humaniste la commune de Villiers-sur-Loir. Une rue y porte son nom.
+Son frère, Clément, qui fut notamment un journaliste engagé, également républicain et socialiste, opposant au régime de Napoléon III, fut éloigné de la Sarthe et du Loir-et-Cher par mesure pénale du fait de ses idées.
 </t>
         </is>
       </c>
